--- a/Data/EC/NIT-9004075788.xlsx
+++ b/Data/EC/NIT-9004075788.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F750BB2-896A-495F-8040-4E8FC3BC58AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02014F67-8FD8-423D-8F97-E3021CA9B3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{21A8E32B-6C3C-478C-9B10-03B276077BFA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D8F27894-CC6A-42DF-B6DC-1B869819CF64}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="75">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,139 +65,169 @@
     <t>CC</t>
   </si>
   <si>
+    <t>9158811</t>
+  </si>
+  <si>
+    <t>URIEL GONZALEZ SILGADO</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>9044661</t>
+  </si>
+  <si>
+    <t>GEOMAR DE JESUS BLANCO HERRERA</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>1128048654</t>
+  </si>
+  <si>
+    <t>ALVARO LUIS GAVIRIA HERRERA</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>19897213</t>
+  </si>
+  <si>
+    <t>ALSIS DE JESUS CASTILLO MENDOZA</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>50907994</t>
+  </si>
+  <si>
+    <t>ERICA CLAUDIA CRUZ PEREZ</t>
+  </si>
+  <si>
+    <t>17901358</t>
+  </si>
+  <si>
+    <t>JEISON LUIS GOMEZ CARVAJALINO</t>
+  </si>
+  <si>
+    <t>8870427</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS MARQUEZ BAUTISTA</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>1137195812</t>
+  </si>
+  <si>
+    <t>YORLIN JOSE BERRIO TORRES</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
     <t>9097123</t>
   </si>
   <si>
     <t>VICTOR ALFONSO BERNAL GIL</t>
   </si>
   <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
     <t>2110</t>
   </si>
   <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>8870427</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS MARQUEZ BAUTISTA</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>1137195812</t>
-  </si>
-  <si>
-    <t>YORLIN JOSE BERRIO TORRES</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>1128048654</t>
-  </si>
-  <si>
-    <t>ALVARO LUIS GAVIRIA HERRERA</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>50907994</t>
-  </si>
-  <si>
-    <t>ERICA CLAUDIA CRUZ PEREZ</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
+    <t>8500222</t>
+  </si>
+  <si>
+    <t>NERINSON JOSE AVILA COBO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -611,7 +641,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46B69493-DC7E-73E9-A28C-B1733E646F35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71ACEC84-69DC-0D37-BB37-3AC3A4C57835}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -962,8 +992,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5CC0E3-AB74-4467-87A6-11EA3454FA9C}">
-  <dimension ref="B2:J84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E15F60-D0A9-42F3-A552-686108B5B035}">
+  <dimension ref="B2:J89"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -974,7 +1004,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -987,7 +1017,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1032,7 +1062,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1064,12 +1094,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2545957</v>
+        <v>2753157</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1080,14 +1110,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F13" s="5">
         <v>35</v>
@@ -1117,13 +1147,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1140,10 +1170,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>9691</v>
+        <v>28000</v>
       </c>
       <c r="G16" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1154,19 +1184,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G17" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1177,19 +1207,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F18" s="18">
-        <v>36341</v>
+        <v>42000</v>
       </c>
       <c r="G18" s="18">
-        <v>908526</v>
+        <v>1500000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1200,19 +1230,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
-        <v>36341</v>
+        <v>60000</v>
       </c>
       <c r="G19" s="18">
-        <v>908526</v>
+        <v>1500000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1223,19 +1253,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F20" s="18">
-        <v>36341</v>
+        <v>60000</v>
       </c>
       <c r="G20" s="18">
-        <v>908526</v>
+        <v>1500000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1246,19 +1276,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
-        <v>36341</v>
+        <v>60000</v>
       </c>
       <c r="G21" s="18">
-        <v>908526</v>
+        <v>1500000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1269,19 +1299,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F22" s="18">
-        <v>36341</v>
+        <v>60000</v>
       </c>
       <c r="G22" s="18">
-        <v>908526</v>
+        <v>1500000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1292,19 +1322,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
-        <v>36341</v>
+        <v>60000</v>
       </c>
       <c r="G23" s="18">
-        <v>908526</v>
+        <v>1500000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1315,19 +1345,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F24" s="18">
-        <v>36341</v>
+        <v>52000</v>
       </c>
       <c r="G24" s="18">
-        <v>908526</v>
+        <v>1500000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1338,19 +1368,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F25" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G25" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1361,19 +1391,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F26" s="18">
-        <v>36341</v>
+        <v>36400</v>
       </c>
       <c r="G26" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1384,19 +1414,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
-        <v>36341</v>
+        <v>52000</v>
       </c>
       <c r="G27" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1407,19 +1437,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
-        <v>36341</v>
+        <v>52000</v>
       </c>
       <c r="G28" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1430,19 +1460,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F29" s="18">
-        <v>36341</v>
+        <v>52000</v>
       </c>
       <c r="G29" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1453,19 +1483,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F30" s="18">
-        <v>36341</v>
+        <v>52000</v>
       </c>
       <c r="G30" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1476,19 +1506,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F31" s="18">
-        <v>36341</v>
+        <v>52000</v>
       </c>
       <c r="G31" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1505,13 +1535,13 @@
         <v>28</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F32" s="18">
-        <v>6187</v>
+        <v>52000</v>
       </c>
       <c r="G32" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1522,13 +1552,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F33" s="18">
         <v>46400</v>
@@ -1545,19 +1575,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F34" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G34" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1568,19 +1598,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F35" s="18">
-        <v>36341</v>
+        <v>6187</v>
       </c>
       <c r="G35" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1591,19 +1621,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F36" s="18">
-        <v>36341</v>
+        <v>32480</v>
       </c>
       <c r="G36" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1614,19 +1644,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F37" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G37" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1637,19 +1667,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F38" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G38" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1660,19 +1690,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F39" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G39" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1683,19 +1713,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F40" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G40" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1706,16 +1736,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F41" s="18">
-        <v>20107</v>
+        <v>46400</v>
       </c>
       <c r="G41" s="18">
         <v>1160000</v>
@@ -1729,19 +1759,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F42" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G42" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1752,19 +1782,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F43" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G43" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1775,13 +1805,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D44" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="F44" s="18">
         <v>46400</v>
@@ -1798,13 +1828,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F45" s="18">
         <v>46400</v>
@@ -1821,19 +1851,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F46" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G46" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1844,16 +1874,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F47" s="18">
-        <v>46400</v>
+        <v>20107</v>
       </c>
       <c r="G47" s="18">
         <v>1160000</v>
@@ -1867,16 +1897,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F48" s="18">
-        <v>36341</v>
+        <v>25439</v>
       </c>
       <c r="G48" s="18">
         <v>908526</v>
@@ -1890,19 +1920,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F49" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G49" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1913,13 +1943,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="F50" s="18">
         <v>36341</v>
@@ -1936,19 +1966,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F51" s="18">
-        <v>52000</v>
+        <v>36341</v>
       </c>
       <c r="G51" s="18">
-        <v>1500000</v>
+        <v>908526</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1959,13 +1989,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="F52" s="18">
         <v>36341</v>
@@ -1982,19 +2012,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="F53" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G53" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2005,19 +2035,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F54" s="18">
-        <v>52000</v>
+        <v>36341</v>
       </c>
       <c r="G54" s="18">
-        <v>1300000</v>
+        <v>908526</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2028,19 +2058,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D55" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>48</v>
-      </c>
       <c r="F55" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G55" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2051,19 +2081,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F56" s="18">
-        <v>52000</v>
+        <v>36341</v>
       </c>
       <c r="G56" s="18">
-        <v>1300000</v>
+        <v>908526</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2074,13 +2104,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F57" s="18">
         <v>36341</v>
@@ -2097,19 +2127,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F58" s="18">
-        <v>60000</v>
+        <v>36341</v>
       </c>
       <c r="G58" s="18">
-        <v>1500000</v>
+        <v>908526</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2120,19 +2150,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F59" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G59" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2143,19 +2173,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E60" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D60" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>49</v>
-      </c>
       <c r="F60" s="18">
-        <v>60000</v>
+        <v>36341</v>
       </c>
       <c r="G60" s="18">
-        <v>1500000</v>
+        <v>908526</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2166,19 +2196,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F61" s="18">
-        <v>52000</v>
+        <v>36341</v>
       </c>
       <c r="G61" s="18">
-        <v>1300000</v>
+        <v>908526</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2189,13 +2219,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F62" s="18">
         <v>36341</v>
@@ -2212,19 +2242,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E63" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D63" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>50</v>
-      </c>
       <c r="F63" s="18">
-        <v>52000</v>
+        <v>36341</v>
       </c>
       <c r="G63" s="18">
-        <v>1300000</v>
+        <v>908526</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2235,19 +2265,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F64" s="18">
-        <v>60000</v>
+        <v>36341</v>
       </c>
       <c r="G64" s="18">
-        <v>1500000</v>
+        <v>908526</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2258,13 +2288,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F65" s="18">
         <v>36341</v>
@@ -2281,19 +2311,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F66" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G66" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2304,19 +2334,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F67" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G67" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2327,13 +2357,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F68" s="18">
         <v>36341</v>
@@ -2350,19 +2380,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F69" s="18">
-        <v>60000</v>
+        <v>36341</v>
       </c>
       <c r="G69" s="18">
-        <v>1500000</v>
+        <v>908526</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2373,19 +2403,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E70" s="16" t="s">
         <v>51</v>
       </c>
       <c r="F70" s="18">
-        <v>52000</v>
+        <v>36341</v>
       </c>
       <c r="G70" s="18">
-        <v>1300000</v>
+        <v>908526</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2396,13 +2426,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F71" s="18">
         <v>36341</v>
@@ -2419,19 +2449,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E72" s="16" t="s">
         <v>52</v>
       </c>
       <c r="F72" s="18">
-        <v>52000</v>
+        <v>36341</v>
       </c>
       <c r="G72" s="18">
-        <v>1300000</v>
+        <v>908526</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2442,19 +2472,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F73" s="18">
-        <v>60000</v>
+        <v>36341</v>
       </c>
       <c r="G73" s="18">
-        <v>1500000</v>
+        <v>908526</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2465,19 +2495,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="F74" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G74" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2488,19 +2518,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F75" s="18">
-        <v>36400</v>
+        <v>36341</v>
       </c>
       <c r="G75" s="18">
-        <v>1300000</v>
+        <v>908526</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2511,16 +2541,16 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F76" s="18">
-        <v>25439</v>
+        <v>36341</v>
       </c>
       <c r="G76" s="18">
         <v>908526</v>
@@ -2534,75 +2564,190 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F77" s="18">
-        <v>32480</v>
+        <v>36341</v>
       </c>
       <c r="G77" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D78" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E78" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F78" s="24">
-        <v>42000</v>
-      </c>
-      <c r="G78" s="24">
-        <v>1500000</v>
-      </c>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="26"/>
+      <c r="B78" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F78" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G78" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="20"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B79" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F79" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G79" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="20"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B80" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F80" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G80" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="20"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B81" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F81" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G81" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="20"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B82" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F82" s="18">
+        <v>9691</v>
+      </c>
+      <c r="G82" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="20"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B83" s="32" t="s">
+      <c r="B83" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D83" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C83" s="32"/>
-      <c r="H83" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B84" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C84" s="32"/>
-      <c r="H84" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
+      <c r="E83" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F83" s="24">
+        <v>46400</v>
+      </c>
+      <c r="G83" s="24">
+        <v>1160000</v>
+      </c>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="26"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B88" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C88" s="32"/>
+      <c r="H88" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B89" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C89" s="32"/>
+      <c r="H89" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="H88:J88"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9004075788.xlsx
+++ b/Data/EC/NIT-9004075788.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02014F67-8FD8-423D-8F97-E3021CA9B3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26922A76-20CA-4548-8ECB-8DA111AA9B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D8F27894-CC6A-42DF-B6DC-1B869819CF64}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4CA90DC6-F815-4D9C-97AD-1109E30665AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="65">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,22 +65,106 @@
     <t>CC</t>
   </si>
   <si>
-    <t>9158811</t>
-  </si>
-  <si>
-    <t>URIEL GONZALEZ SILGADO</t>
+    <t>9097123</t>
+  </si>
+  <si>
+    <t>VICTOR ALFONSO BERNAL GIL</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
   </si>
   <si>
     <t>2209</t>
   </si>
   <si>
-    <t>9044661</t>
-  </si>
-  <si>
-    <t>GEOMAR DE JESUS BLANCO HERRERA</t>
-  </si>
-  <si>
-    <t>2206</t>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>8870427</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS MARQUEZ BAUTISTA</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>1137195812</t>
+  </si>
+  <si>
+    <t>YORLIN JOSE BERRIO TORRES</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
   </si>
   <si>
     <t>1128048654</t>
@@ -89,145 +173,31 @@
     <t>ALVARO LUIS GAVIRIA HERRERA</t>
   </si>
   <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>50907994</t>
+  </si>
+  <si>
+    <t>ERICA CLAUDIA CRUZ PEREZ</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
     <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>19897213</t>
-  </si>
-  <si>
-    <t>ALSIS DE JESUS CASTILLO MENDOZA</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>50907994</t>
-  </si>
-  <si>
-    <t>ERICA CLAUDIA CRUZ PEREZ</t>
-  </si>
-  <si>
-    <t>17901358</t>
-  </si>
-  <si>
-    <t>JEISON LUIS GOMEZ CARVAJALINO</t>
-  </si>
-  <si>
-    <t>8870427</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS MARQUEZ BAUTISTA</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>1137195812</t>
-  </si>
-  <si>
-    <t>YORLIN JOSE BERRIO TORRES</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>9097123</t>
-  </si>
-  <si>
-    <t>VICTOR ALFONSO BERNAL GIL</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>8500222</t>
-  </si>
-  <si>
-    <t>NERINSON JOSE AVILA COBO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -326,9 +296,159 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -346,156 +466,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -541,23 +511,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -585,10 +555,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -641,7 +611,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71ACEC84-69DC-0D37-BB37-3AC3A4C57835}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AB7106B-481D-B637-B4B1-D7E9B2F44D58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -992,8 +962,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E15F60-D0A9-42F3-A552-686108B5B035}">
-  <dimension ref="B2:J89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD51919F-9C47-4B45-8BAC-75428245F146}">
+  <dimension ref="B2:J84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1004,7 +974,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1017,7 +987,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1062,7 +1032,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1094,12 +1064,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2753157</v>
+        <v>2545957</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1110,14 +1080,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C13" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F13" s="5">
         <v>35</v>
@@ -1147,13 +1117,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1170,10 +1140,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>28000</v>
+        <v>9691</v>
       </c>
       <c r="G16" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1184,19 +1154,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G17" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1207,19 +1177,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>42000</v>
+        <v>36341</v>
       </c>
       <c r="G18" s="18">
-        <v>1500000</v>
+        <v>908526</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1230,19 +1200,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>60000</v>
+        <v>36341</v>
       </c>
       <c r="G19" s="18">
-        <v>1500000</v>
+        <v>908526</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1253,19 +1223,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F20" s="18">
-        <v>60000</v>
+        <v>36341</v>
       </c>
       <c r="G20" s="18">
-        <v>1500000</v>
+        <v>908526</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1276,19 +1246,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F21" s="18">
-        <v>60000</v>
+        <v>36341</v>
       </c>
       <c r="G21" s="18">
-        <v>1500000</v>
+        <v>908526</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1299,19 +1269,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>60000</v>
+        <v>36341</v>
       </c>
       <c r="G22" s="18">
-        <v>1500000</v>
+        <v>908526</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1322,19 +1292,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>60000</v>
+        <v>36341</v>
       </c>
       <c r="G23" s="18">
-        <v>1500000</v>
+        <v>908526</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1345,19 +1315,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>52000</v>
+        <v>36341</v>
       </c>
       <c r="G24" s="18">
-        <v>1500000</v>
+        <v>908526</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1368,19 +1338,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G25" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1391,19 +1361,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>36400</v>
+        <v>36341</v>
       </c>
       <c r="G26" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1414,19 +1384,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>52000</v>
+        <v>36341</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1437,19 +1407,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>52000</v>
+        <v>36341</v>
       </c>
       <c r="G28" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1460,19 +1430,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>52000</v>
+        <v>36341</v>
       </c>
       <c r="G29" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1483,19 +1453,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>52000</v>
+        <v>36341</v>
       </c>
       <c r="G30" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1506,19 +1476,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="E31" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F31" s="18">
-        <v>52000</v>
+        <v>6187</v>
       </c>
       <c r="G31" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1529,19 +1499,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F32" s="18">
-        <v>52000</v>
+        <v>36341</v>
       </c>
       <c r="G32" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1552,13 +1522,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F33" s="18">
         <v>46400</v>
@@ -1575,19 +1545,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G34" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1598,19 +1568,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>6187</v>
+        <v>36341</v>
       </c>
       <c r="G35" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1621,19 +1591,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>32480</v>
+        <v>36341</v>
       </c>
       <c r="G36" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1644,19 +1614,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G37" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1667,19 +1637,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G38" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1690,19 +1660,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F39" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G39" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1713,19 +1683,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F40" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G40" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1736,16 +1706,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F41" s="18">
-        <v>46400</v>
+        <v>20107</v>
       </c>
       <c r="G41" s="18">
         <v>1160000</v>
@@ -1759,19 +1729,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F42" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G42" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1782,13 +1752,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F43" s="18">
         <v>46400</v>
@@ -1805,19 +1775,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G44" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1828,13 +1798,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
         <v>46400</v>
@@ -1851,19 +1821,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F46" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G46" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1874,16 +1844,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F47" s="18">
-        <v>20107</v>
+        <v>46400</v>
       </c>
       <c r="G47" s="18">
         <v>1160000</v>
@@ -1897,16 +1867,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F48" s="18">
-        <v>25439</v>
+        <v>36341</v>
       </c>
       <c r="G48" s="18">
         <v>908526</v>
@@ -1920,19 +1890,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D49" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F49" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G49" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1943,13 +1913,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F50" s="18">
         <v>36341</v>
@@ -1966,19 +1936,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F51" s="18">
-        <v>36341</v>
+        <v>52000</v>
       </c>
       <c r="G51" s="18">
-        <v>908526</v>
+        <v>1500000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1989,19 +1959,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F52" s="18">
-        <v>36341</v>
+        <v>52000</v>
       </c>
       <c r="G52" s="18">
-        <v>908526</v>
+        <v>1300000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2012,19 +1982,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F53" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G53" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2035,13 +2005,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F54" s="18">
         <v>36341</v>
@@ -2058,19 +2028,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F55" s="18">
-        <v>36341</v>
+        <v>60000</v>
       </c>
       <c r="G55" s="18">
-        <v>908526</v>
+        <v>1500000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2081,19 +2051,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F56" s="18">
-        <v>36341</v>
+        <v>52000</v>
       </c>
       <c r="G56" s="18">
-        <v>908526</v>
+        <v>1300000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2104,19 +2074,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F57" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G57" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2127,13 +2097,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F58" s="18">
         <v>36341</v>
@@ -2150,19 +2120,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F59" s="18">
-        <v>36341</v>
+        <v>60000</v>
       </c>
       <c r="G59" s="18">
-        <v>908526</v>
+        <v>1500000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2173,19 +2143,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F60" s="18">
-        <v>36341</v>
+        <v>52000</v>
       </c>
       <c r="G60" s="18">
-        <v>908526</v>
+        <v>1300000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2196,19 +2166,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F61" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G61" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2219,13 +2189,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F62" s="18">
         <v>36341</v>
@@ -2242,19 +2212,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F63" s="18">
-        <v>36341</v>
+        <v>60000</v>
       </c>
       <c r="G63" s="18">
-        <v>908526</v>
+        <v>1500000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2265,19 +2235,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F64" s="18">
-        <v>36341</v>
+        <v>52000</v>
       </c>
       <c r="G64" s="18">
-        <v>908526</v>
+        <v>1300000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2288,19 +2258,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F65" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G65" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2311,13 +2281,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="F66" s="18">
         <v>36341</v>
@@ -2334,19 +2304,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F67" s="18">
-        <v>36341</v>
+        <v>60000</v>
       </c>
       <c r="G67" s="18">
-        <v>908526</v>
+        <v>1500000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2357,19 +2327,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F68" s="18">
-        <v>36341</v>
+        <v>52000</v>
       </c>
       <c r="G68" s="18">
-        <v>908526</v>
+        <v>1300000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2380,19 +2350,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F69" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G69" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2403,10 +2373,10 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
         <v>51</v>
@@ -2426,19 +2396,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="F71" s="18">
-        <v>36341</v>
+        <v>60000</v>
       </c>
       <c r="G71" s="18">
-        <v>908526</v>
+        <v>1500000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2449,19 +2419,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E72" s="16" t="s">
         <v>52</v>
       </c>
       <c r="F72" s="18">
-        <v>36341</v>
+        <v>52000</v>
       </c>
       <c r="G72" s="18">
-        <v>908526</v>
+        <v>1300000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2472,19 +2442,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F73" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G73" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2495,13 +2465,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="F74" s="18">
         <v>36341</v>
@@ -2518,19 +2488,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F75" s="18">
-        <v>36341</v>
+        <v>42000</v>
       </c>
       <c r="G75" s="18">
-        <v>908526</v>
+        <v>1500000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2541,19 +2511,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F76" s="18">
-        <v>36341</v>
+        <v>36400</v>
       </c>
       <c r="G76" s="18">
-        <v>908526</v>
+        <v>1300000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2564,190 +2534,75 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F77" s="18">
-        <v>36341</v>
+        <v>32480</v>
       </c>
       <c r="G77" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F78" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G78" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B79" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F79" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G79" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B80" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F80" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G80" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B81" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E81" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F81" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G81" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B82" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E82" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F82" s="18">
-        <v>9691</v>
-      </c>
-      <c r="G82" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
+      <c r="B78" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F78" s="24">
+        <v>25439</v>
+      </c>
+      <c r="G78" s="24">
+        <v>908526</v>
+      </c>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="26"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B83" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="22" t="s">
+      <c r="B83" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C83" s="32"/>
+      <c r="H83" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B84" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D83" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E83" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F83" s="24">
-        <v>46400</v>
-      </c>
-      <c r="G83" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H83" s="25"/>
-      <c r="I83" s="25"/>
-      <c r="J83" s="26"/>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B88" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C88" s="32"/>
-      <c r="H88" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B89" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C89" s="32"/>
-      <c r="H89" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
+      <c r="C84" s="32"/>
+      <c r="H84" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="H83:J83"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9004075788.xlsx
+++ b/Data/EC/NIT-9004075788.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26922A76-20CA-4548-8ECB-8DA111AA9B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84FB1BB9-F9D2-4F12-B491-B27C72E8C183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4CA90DC6-F815-4D9C-97AD-1109E30665AF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{007581C2-0E86-4A98-9CF0-CEB7EEC53F80}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -296,159 +296,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -466,7 +316,142 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,7 +463,7 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -496,6 +481,21 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -505,29 +505,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -546,19 +546,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -611,7 +617,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AB7106B-481D-B637-B4B1-D7E9B2F44D58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D68FE1C-DFE5-E995-689E-C5E4DE738DE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -962,7 +968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD51919F-9C47-4B45-8BAC-75428245F146}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1317F5C-DA09-4463-9DFC-578D2C1F0EC7}">
   <dimension ref="B2:J84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -985,49 +991,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -1035,7 +1041,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1051,7 +1057,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9004075788</v>
       </c>
@@ -1067,7 +1073,7 @@
         <v>56</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>2545957</v>
       </c>
@@ -1136,18 +1142,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>9691</v>
       </c>
-      <c r="G16" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="G16" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1159,18 +1165,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G17" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="F17" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G17" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1182,18 +1188,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G18" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="F18" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G18" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1205,18 +1211,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G19" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="F19" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G19" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1228,18 +1234,18 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G20" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="F20" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G20" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1251,18 +1257,18 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G21" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="F21" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G21" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1274,18 +1280,18 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G22" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="F22" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G22" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1297,18 +1303,18 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G23" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="F23" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G23" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1320,18 +1326,18 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G24" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="F24" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G24" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1343,18 +1349,18 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G25" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G25" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1366,18 +1372,18 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G26" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="F26" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G26" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1389,18 +1395,18 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G27" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G27" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1412,18 +1418,18 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G28" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G28" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1435,18 +1441,18 @@
       <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G29" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="F29" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G29" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1458,18 +1464,18 @@
       <c r="D30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G30" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="F30" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G30" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1481,18 +1487,18 @@
       <c r="D31" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>6187</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="19">
         <v>1160000</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1504,18 +1510,18 @@
       <c r="D32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G32" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="F32" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G32" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1527,18 +1533,18 @@
       <c r="D33" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>46400</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="19">
         <v>1160000</v>
       </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1550,18 +1556,18 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G34" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G34" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1573,18 +1579,18 @@
       <c r="D35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G35" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="F35" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G35" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1596,18 +1602,18 @@
       <c r="D36" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G36" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="F36" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G36" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1619,18 +1625,18 @@
       <c r="D37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G37" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="F37" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G37" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1642,18 +1648,18 @@
       <c r="D38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G38" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="F38" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G38" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1665,18 +1671,18 @@
       <c r="D39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G39" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="F39" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G39" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1688,18 +1694,18 @@
       <c r="D40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G40" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="F40" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G40" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1711,18 +1717,18 @@
       <c r="D41" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="19">
         <v>20107</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G41" s="19">
         <v>1160000</v>
       </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1734,18 +1740,18 @@
       <c r="D42" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F42" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G42" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="F42" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G42" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1757,18 +1763,18 @@
       <c r="D43" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="19">
         <v>46400</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="19">
         <v>1160000</v>
       </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1780,18 +1786,18 @@
       <c r="D44" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G44" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="F44" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G44" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -1803,18 +1809,18 @@
       <c r="D45" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="19">
         <v>46400</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G45" s="19">
         <v>1160000</v>
       </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -1826,18 +1832,18 @@
       <c r="D46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F46" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G46" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="F46" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G46" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -1849,18 +1855,18 @@
       <c r="D47" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="19">
         <v>46400</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="19">
         <v>1160000</v>
       </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -1872,18 +1878,18 @@
       <c r="D48" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F48" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G48" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="F48" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G48" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -1895,18 +1901,18 @@
       <c r="D49" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="19">
         <v>46400</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G49" s="19">
         <v>1160000</v>
       </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
@@ -1918,18 +1924,18 @@
       <c r="D50" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F50" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G50" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="F50" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G50" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
@@ -1941,18 +1947,18 @@
       <c r="D51" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="19">
         <v>52000</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G51" s="19">
         <v>1500000</v>
       </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
@@ -1964,18 +1970,18 @@
       <c r="D52" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F52" s="19">
         <v>52000</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G52" s="19">
         <v>1300000</v>
       </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
@@ -1987,18 +1993,18 @@
       <c r="D53" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F53" s="19">
         <v>46400</v>
       </c>
-      <c r="G53" s="18">
+      <c r="G53" s="19">
         <v>1160000</v>
       </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
@@ -2010,18 +2016,18 @@
       <c r="D54" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F54" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G54" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
+      <c r="F54" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G54" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
@@ -2033,18 +2039,18 @@
       <c r="D55" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F55" s="19">
         <v>60000</v>
       </c>
-      <c r="G55" s="18">
+      <c r="G55" s="19">
         <v>1500000</v>
       </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
@@ -2056,18 +2062,18 @@
       <c r="D56" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F56" s="19">
         <v>52000</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G56" s="19">
         <v>1300000</v>
       </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
@@ -2079,18 +2085,18 @@
       <c r="D57" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="19">
         <v>46400</v>
       </c>
-      <c r="G57" s="18">
+      <c r="G57" s="19">
         <v>1160000</v>
       </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
@@ -2102,18 +2108,18 @@
       <c r="D58" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F58" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G58" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
+      <c r="F58" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G58" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
@@ -2125,18 +2131,18 @@
       <c r="D59" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F59" s="19">
         <v>60000</v>
       </c>
-      <c r="G59" s="18">
+      <c r="G59" s="19">
         <v>1500000</v>
       </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
@@ -2148,18 +2154,18 @@
       <c r="D60" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="19">
         <v>52000</v>
       </c>
-      <c r="G60" s="18">
+      <c r="G60" s="19">
         <v>1300000</v>
       </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
@@ -2171,18 +2177,18 @@
       <c r="D61" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F61" s="19">
         <v>46400</v>
       </c>
-      <c r="G61" s="18">
+      <c r="G61" s="19">
         <v>1160000</v>
       </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
@@ -2194,18 +2200,18 @@
       <c r="D62" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F62" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G62" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
+      <c r="F62" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G62" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
@@ -2217,18 +2223,18 @@
       <c r="D63" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F63" s="19">
         <v>60000</v>
       </c>
-      <c r="G63" s="18">
+      <c r="G63" s="19">
         <v>1500000</v>
       </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
@@ -2240,18 +2246,18 @@
       <c r="D64" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F64" s="19">
         <v>52000</v>
       </c>
-      <c r="G64" s="18">
+      <c r="G64" s="19">
         <v>1300000</v>
       </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
@@ -2263,18 +2269,18 @@
       <c r="D65" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F65" s="18">
+      <c r="F65" s="19">
         <v>46400</v>
       </c>
-      <c r="G65" s="18">
+      <c r="G65" s="19">
         <v>1160000</v>
       </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
@@ -2286,18 +2292,18 @@
       <c r="D66" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F66" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G66" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
+      <c r="F66" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G66" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
@@ -2309,18 +2315,18 @@
       <c r="D67" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F67" s="19">
         <v>60000</v>
       </c>
-      <c r="G67" s="18">
+      <c r="G67" s="19">
         <v>1500000</v>
       </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
@@ -2332,18 +2338,18 @@
       <c r="D68" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F68" s="18">
+      <c r="F68" s="19">
         <v>52000</v>
       </c>
-      <c r="G68" s="18">
+      <c r="G68" s="19">
         <v>1300000</v>
       </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
@@ -2355,18 +2361,18 @@
       <c r="D69" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F69" s="18">
+      <c r="F69" s="19">
         <v>46400</v>
       </c>
-      <c r="G69" s="18">
+      <c r="G69" s="19">
         <v>1160000</v>
       </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
@@ -2378,18 +2384,18 @@
       <c r="D70" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F70" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G70" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
+      <c r="F70" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G70" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
@@ -2401,18 +2407,18 @@
       <c r="D71" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F71" s="18">
+      <c r="F71" s="19">
         <v>60000</v>
       </c>
-      <c r="G71" s="18">
+      <c r="G71" s="19">
         <v>1500000</v>
       </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
@@ -2424,18 +2430,18 @@
       <c r="D72" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F72" s="18">
+      <c r="F72" s="19">
         <v>52000</v>
       </c>
-      <c r="G72" s="18">
+      <c r="G72" s="19">
         <v>1300000</v>
       </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
@@ -2447,18 +2453,18 @@
       <c r="D73" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F73" s="18">
+      <c r="F73" s="19">
         <v>46400</v>
       </c>
-      <c r="G73" s="18">
+      <c r="G73" s="19">
         <v>1160000</v>
       </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
@@ -2470,18 +2476,18 @@
       <c r="D74" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F74" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G74" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
+      <c r="F74" s="19">
+        <v>36341</v>
+      </c>
+      <c r="G74" s="19">
+        <v>908526</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
@@ -2493,18 +2499,18 @@
       <c r="D75" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F75" s="18">
+      <c r="F75" s="19">
         <v>42000</v>
       </c>
-      <c r="G75" s="18">
+      <c r="G75" s="19">
         <v>1500000</v>
       </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
@@ -2516,18 +2522,18 @@
       <c r="D76" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F76" s="18">
+      <c r="F76" s="19">
         <v>36400</v>
       </c>
-      <c r="G76" s="18">
+      <c r="G76" s="19">
         <v>1300000</v>
       </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
@@ -2539,47 +2545,47 @@
       <c r="D77" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F77" s="18">
+      <c r="F77" s="19">
         <v>32480</v>
       </c>
-      <c r="G77" s="18">
+      <c r="G77" s="19">
         <v>1160000</v>
       </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" s="22" t="s">
+      <c r="B78" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F78" s="24">
+      <c r="F78" s="26">
         <v>25439</v>
       </c>
-      <c r="G78" s="24">
-        <v>908526</v>
-      </c>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="26"/>
+      <c r="G78" s="26">
+        <v>908526</v>
+      </c>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="28"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B83" s="32" t="s">
+      <c r="B83" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C83" s="32"/>
+      <c r="C83" s="34"/>
       <c r="H83" s="1" t="s">
         <v>63</v>
       </c>
@@ -2587,10 +2593,10 @@
       <c r="J83" s="1"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B84" s="32" t="s">
+      <c r="B84" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C84" s="32"/>
+      <c r="C84" s="34"/>
       <c r="H84" s="1" t="s">
         <v>64</v>
       </c>
